--- a/Dane/Klasy/3e.xlsx
+++ b/Dane/Klasy/3e.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\Dane\Klasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33449585-A367-41A5-968D-ACF2275DA7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A439B1-D9A4-4818-994C-1384E92ACEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>32, 12, 25, 13, 37, 36, 24, 17</t>
   </si>
   <si>
-    <t xml:space="preserve">9, 43, 26, 24, 44, 31, 19, 20, 29, </t>
-  </si>
-  <si>
     <t>Biłogras Jolanta, Gazda Beata</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Geo 3E</t>
+  </si>
+  <si>
+    <t>9, 43, 26, 24, 44, 31, 19, 20, 29</t>
   </si>
 </sst>
 </file>
@@ -967,7 +967,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1058,18 +1058,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
